--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.14859952996797</v>
+        <v>7.018436333333334</v>
       </c>
       <c r="H2">
-        <v>1.14859952996797</v>
+        <v>21.055309</v>
       </c>
       <c r="I2">
-        <v>0.0002796648998615559</v>
+        <v>0.001699903579759509</v>
       </c>
       <c r="J2">
-        <v>0.0002796648998615559</v>
+        <v>0.001699903579759509</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>11.2601700074867</v>
+        <v>1.734127333333333</v>
       </c>
       <c r="N2">
-        <v>11.2601700074867</v>
+        <v>5.202382</v>
       </c>
       <c r="O2">
-        <v>0.5291724353155901</v>
+        <v>0.07488702167465976</v>
       </c>
       <c r="P2">
-        <v>0.5291724353155901</v>
+        <v>0.07488702167465977</v>
       </c>
       <c r="Q2">
-        <v>12.93342597795866</v>
+        <v>12.17086228289311</v>
       </c>
       <c r="R2">
-        <v>12.93342597795866</v>
+        <v>109.537760546038</v>
       </c>
       <c r="S2">
-        <v>0.0001479909561320302</v>
+        <v>0.000127300716222282</v>
       </c>
       <c r="T2">
-        <v>0.0001479909561320302</v>
+        <v>0.0001273007162222821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.14859952996797</v>
+        <v>7.018436333333334</v>
       </c>
       <c r="H3">
-        <v>1.14859952996797</v>
+        <v>21.055309</v>
       </c>
       <c r="I3">
-        <v>0.0002796648998615559</v>
+        <v>0.001699903579759509</v>
       </c>
       <c r="J3">
-        <v>0.0002796648998615559</v>
+        <v>0.001699903579759509</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.0186594552976</v>
+        <v>11.370088</v>
       </c>
       <c r="N3">
-        <v>10.0186594552976</v>
+        <v>34.110264</v>
       </c>
       <c r="O3">
-        <v>0.4708275646844098</v>
+        <v>0.4910089415764484</v>
       </c>
       <c r="P3">
-        <v>0.4708275646844098</v>
+        <v>0.4910089415764484</v>
       </c>
       <c r="Q3">
-        <v>11.50742754126398</v>
+        <v>79.80023873239735</v>
       </c>
       <c r="R3">
-        <v>11.50742754126398</v>
+        <v>718.202148591576</v>
       </c>
       <c r="S3">
-        <v>0.0001316739437295257</v>
+        <v>0.0008346678574797321</v>
       </c>
       <c r="T3">
-        <v>0.0001316739437295257</v>
+        <v>0.0008346678574797323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3973.01080007994</v>
+        <v>7.018436333333334</v>
       </c>
       <c r="H4">
-        <v>3973.01080007994</v>
+        <v>21.055309</v>
       </c>
       <c r="I4">
-        <v>0.9673621123493068</v>
+        <v>0.001699903579759509</v>
       </c>
       <c r="J4">
-        <v>0.9673621123493068</v>
+        <v>0.001699903579759509</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>11.2601700074867</v>
+        <v>0.02674833333333333</v>
       </c>
       <c r="N4">
-        <v>11.2601700074867</v>
+        <v>0.080245</v>
       </c>
       <c r="O4">
-        <v>0.5291724353155901</v>
+        <v>0.001155107228627785</v>
       </c>
       <c r="P4">
-        <v>0.5291724353155901</v>
+        <v>0.001155107228627785</v>
       </c>
       <c r="Q4">
-        <v>44736.77705048088</v>
+        <v>0.1877314745227778</v>
       </c>
       <c r="R4">
-        <v>44736.77705048088</v>
+        <v>1.689583270705</v>
       </c>
       <c r="S4">
-        <v>0.5119013648239161</v>
+        <v>1.963570912950457E-06</v>
       </c>
       <c r="T4">
-        <v>0.5119013648239161</v>
+        <v>1.963570912950457E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3973.01080007994</v>
+        <v>7.018436333333334</v>
       </c>
       <c r="H5">
-        <v>3973.01080007994</v>
+        <v>21.055309</v>
       </c>
       <c r="I5">
-        <v>0.9673621123493068</v>
+        <v>0.001699903579759509</v>
       </c>
       <c r="J5">
-        <v>0.9673621123493068</v>
+        <v>0.001699903579759509</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0186594552976</v>
+        <v>10.02561666666667</v>
       </c>
       <c r="N5">
-        <v>10.0186594552976</v>
+        <v>30.07685</v>
       </c>
       <c r="O5">
-        <v>0.4708275646844098</v>
+        <v>0.432948929520264</v>
       </c>
       <c r="P5">
-        <v>0.4708275646844098</v>
+        <v>0.4329489295202641</v>
       </c>
       <c r="Q5">
-        <v>39804.24221822037</v>
+        <v>70.36415227740555</v>
       </c>
       <c r="R5">
-        <v>39804.24221822037</v>
+        <v>633.2773704966501</v>
       </c>
       <c r="S5">
-        <v>0.4554607475253905</v>
+        <v>0.0007359714351445441</v>
       </c>
       <c r="T5">
-        <v>0.4554607475253905</v>
+        <v>0.0007359714351445443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.595219838953975</v>
+        <v>3983.399495666667</v>
       </c>
       <c r="H6">
-        <v>0.595219838953975</v>
+        <v>11950.198487</v>
       </c>
       <c r="I6">
-        <v>0.0001449261403243973</v>
+        <v>0.9648010953858698</v>
       </c>
       <c r="J6">
-        <v>0.0001449261403243973</v>
+        <v>0.96480109538587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>11.2601700074867</v>
+        <v>1.734127333333333</v>
       </c>
       <c r="N6">
-        <v>11.2601700074867</v>
+        <v>5.202382</v>
       </c>
       <c r="O6">
-        <v>0.5291724353155901</v>
+        <v>0.07488702167465976</v>
       </c>
       <c r="P6">
-        <v>0.5291724353155901</v>
+        <v>0.07488702167465977</v>
       </c>
       <c r="Q6">
-        <v>6.702276578450613</v>
+        <v>6907.721945021782</v>
       </c>
       <c r="R6">
-        <v>6.702276578450613</v>
+        <v>62169.49750519604</v>
       </c>
       <c r="S6">
-        <v>7.669091861635028E-05</v>
+        <v>0.07225108054189711</v>
       </c>
       <c r="T6">
-        <v>7.669091861635028E-05</v>
+        <v>0.07225108054189713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.595219838953975</v>
+        <v>3983.399495666667</v>
       </c>
       <c r="H7">
-        <v>0.595219838953975</v>
+        <v>11950.198487</v>
       </c>
       <c r="I7">
-        <v>0.0001449261403243973</v>
+        <v>0.9648010953858698</v>
       </c>
       <c r="J7">
-        <v>0.0001449261403243973</v>
+        <v>0.96480109538587</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.0186594552976</v>
+        <v>11.370088</v>
       </c>
       <c r="N7">
-        <v>10.0186594552976</v>
+        <v>34.110264</v>
       </c>
       <c r="O7">
-        <v>0.4708275646844098</v>
+        <v>0.4910089415764484</v>
       </c>
       <c r="P7">
-        <v>0.4708275646844098</v>
+        <v>0.4910089415764484</v>
       </c>
       <c r="Q7">
-        <v>5.963304867516957</v>
+        <v>45291.60280488562</v>
       </c>
       <c r="R7">
-        <v>5.963304867516957</v>
+        <v>407624.4252439706</v>
       </c>
       <c r="S7">
-        <v>6.823522170804702E-05</v>
+        <v>0.4737259646772139</v>
       </c>
       <c r="T7">
-        <v>6.823522170804702E-05</v>
+        <v>0.473725964677214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>132.30182752238</v>
+        <v>3983.399495666667</v>
       </c>
       <c r="H8">
-        <v>132.30182752238</v>
+        <v>11950.198487</v>
       </c>
       <c r="I8">
-        <v>0.03221329661050708</v>
+        <v>0.9648010953858698</v>
       </c>
       <c r="J8">
-        <v>0.03221329661050708</v>
+        <v>0.96480109538587</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>11.2601700074867</v>
+        <v>0.02674833333333333</v>
       </c>
       <c r="N8">
-        <v>11.2601700074867</v>
+        <v>0.080245</v>
       </c>
       <c r="O8">
-        <v>0.5291724353155901</v>
+        <v>0.001155107228627785</v>
       </c>
       <c r="P8">
-        <v>0.5291724353155901</v>
+        <v>0.001155107228627785</v>
       </c>
       <c r="Q8">
-        <v>1489.741070203182</v>
+        <v>106.5492975099239</v>
       </c>
       <c r="R8">
-        <v>1489.741070203182</v>
+        <v>958.9436775893149</v>
       </c>
       <c r="S8">
-        <v>0.01704638861692548</v>
+        <v>0.001114448719468223</v>
       </c>
       <c r="T8">
-        <v>0.01704638861692548</v>
+        <v>0.001114448719468224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>132.30182752238</v>
+        <v>3983.399495666667</v>
       </c>
       <c r="H9">
-        <v>132.30182752238</v>
+        <v>11950.198487</v>
       </c>
       <c r="I9">
-        <v>0.03221329661050708</v>
+        <v>0.9648010953858698</v>
       </c>
       <c r="J9">
-        <v>0.03221329661050708</v>
+        <v>0.96480109538587</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.0186594552976</v>
+        <v>10.02561666666667</v>
       </c>
       <c r="N9">
-        <v>10.0186594552976</v>
+        <v>30.07685</v>
       </c>
       <c r="O9">
-        <v>0.4708275646844098</v>
+        <v>0.432948929520264</v>
       </c>
       <c r="P9">
-        <v>0.4708275646844098</v>
+        <v>0.4329489295202641</v>
       </c>
       <c r="Q9">
-        <v>1325.486955260244</v>
+        <v>39936.03637374732</v>
       </c>
       <c r="R9">
-        <v>1325.486955260244</v>
+        <v>359424.3273637259</v>
       </c>
       <c r="S9">
-        <v>0.0151669079935816</v>
+        <v>0.4177096014472905</v>
       </c>
       <c r="T9">
-        <v>0.0151669079935816</v>
+        <v>0.4177096014472906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.256405</v>
+      </c>
+      <c r="H10">
+        <v>3.769215</v>
+      </c>
+      <c r="I10">
+        <v>0.0003043081472413079</v>
+      </c>
+      <c r="J10">
+        <v>0.000304308147241308</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.734127333333333</v>
+      </c>
+      <c r="N10">
+        <v>5.202382</v>
+      </c>
+      <c r="O10">
+        <v>0.07488702167465976</v>
+      </c>
+      <c r="P10">
+        <v>0.07488702167465977</v>
+      </c>
+      <c r="Q10">
+        <v>2.178766252236667</v>
+      </c>
+      <c r="R10">
+        <v>19.60889627013</v>
+      </c>
+      <c r="S10">
+        <v>2.278873081823538E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.278873081823539E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.256405</v>
+      </c>
+      <c r="H11">
+        <v>3.769215</v>
+      </c>
+      <c r="I11">
+        <v>0.0003043081472413079</v>
+      </c>
+      <c r="J11">
+        <v>0.000304308147241308</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.370088</v>
+      </c>
+      <c r="N11">
+        <v>34.110264</v>
+      </c>
+      <c r="O11">
+        <v>0.4910089415764484</v>
+      </c>
+      <c r="P11">
+        <v>0.4910089415764484</v>
+      </c>
+      <c r="Q11">
+        <v>14.28543541364</v>
+      </c>
+      <c r="R11">
+        <v>128.56891872276</v>
+      </c>
+      <c r="S11">
+        <v>0.0001494180212900446</v>
+      </c>
+      <c r="T11">
+        <v>0.0001494180212900446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.256405</v>
+      </c>
+      <c r="H12">
+        <v>3.769215</v>
+      </c>
+      <c r="I12">
+        <v>0.0003043081472413079</v>
+      </c>
+      <c r="J12">
+        <v>0.000304308147241308</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.02674833333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.080245</v>
+      </c>
+      <c r="O12">
+        <v>0.001155107228627785</v>
+      </c>
+      <c r="P12">
+        <v>0.001155107228627785</v>
+      </c>
+      <c r="Q12">
+        <v>0.03360673974166666</v>
+      </c>
+      <c r="R12">
+        <v>0.302460657675</v>
+      </c>
+      <c r="S12">
+        <v>3.515085406087631E-07</v>
+      </c>
+      <c r="T12">
+        <v>3.515085406087632E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.256405</v>
+      </c>
+      <c r="H13">
+        <v>3.769215</v>
+      </c>
+      <c r="I13">
+        <v>0.0003043081472413079</v>
+      </c>
+      <c r="J13">
+        <v>0.000304308147241308</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.02561666666667</v>
+      </c>
+      <c r="N13">
+        <v>30.07685</v>
+      </c>
+      <c r="O13">
+        <v>0.432948929520264</v>
+      </c>
+      <c r="P13">
+        <v>0.4329489295202641</v>
+      </c>
+      <c r="Q13">
+        <v>12.59623490808333</v>
+      </c>
+      <c r="R13">
+        <v>113.36611417275</v>
+      </c>
+      <c r="S13">
+        <v>0.0001317498865924192</v>
+      </c>
+      <c r="T13">
+        <v>0.0001317498865924192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>137.051796</v>
+      </c>
+      <c r="H14">
+        <v>411.155388</v>
+      </c>
+      <c r="I14">
+        <v>0.03319469288712931</v>
+      </c>
+      <c r="J14">
+        <v>0.03319469288712931</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.734127333333333</v>
+      </c>
+      <c r="N14">
+        <v>5.202382</v>
+      </c>
+      <c r="O14">
+        <v>0.07488702167465976</v>
+      </c>
+      <c r="P14">
+        <v>0.07488702167465977</v>
+      </c>
+      <c r="Q14">
+        <v>237.665265526024</v>
+      </c>
+      <c r="R14">
+        <v>2138.987389734216</v>
+      </c>
+      <c r="S14">
+        <v>0.002485851685722127</v>
+      </c>
+      <c r="T14">
+        <v>0.002485851685722127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>137.051796</v>
+      </c>
+      <c r="H15">
+        <v>411.155388</v>
+      </c>
+      <c r="I15">
+        <v>0.03319469288712931</v>
+      </c>
+      <c r="J15">
+        <v>0.03319469288712931</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.370088</v>
+      </c>
+      <c r="N15">
+        <v>34.110264</v>
+      </c>
+      <c r="O15">
+        <v>0.4910089415764484</v>
+      </c>
+      <c r="P15">
+        <v>0.4910089415764484</v>
+      </c>
+      <c r="Q15">
+        <v>1558.290981078048</v>
+      </c>
+      <c r="R15">
+        <v>14024.61882970243</v>
+      </c>
+      <c r="S15">
+        <v>0.01629889102046462</v>
+      </c>
+      <c r="T15">
+        <v>0.01629889102046462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>137.051796</v>
+      </c>
+      <c r="H16">
+        <v>411.155388</v>
+      </c>
+      <c r="I16">
+        <v>0.03319469288712931</v>
+      </c>
+      <c r="J16">
+        <v>0.03319469288712931</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.02674833333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.080245</v>
+      </c>
+      <c r="O16">
+        <v>0.001155107228627785</v>
+      </c>
+      <c r="P16">
+        <v>0.001155107228627785</v>
+      </c>
+      <c r="Q16">
+        <v>3.66590712334</v>
+      </c>
+      <c r="R16">
+        <v>32.99316411006</v>
+      </c>
+      <c r="S16">
+        <v>3.834342970600237E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.834342970600238E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>137.051796</v>
+      </c>
+      <c r="H17">
+        <v>411.155388</v>
+      </c>
+      <c r="I17">
+        <v>0.03319469288712931</v>
+      </c>
+      <c r="J17">
+        <v>0.03319469288712931</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.02561666666667</v>
+      </c>
+      <c r="N17">
+        <v>30.07685</v>
+      </c>
+      <c r="O17">
+        <v>0.432948929520264</v>
+      </c>
+      <c r="P17">
+        <v>0.4329489295202641</v>
+      </c>
+      <c r="Q17">
+        <v>1374.0287701742</v>
+      </c>
+      <c r="R17">
+        <v>12366.2589315678</v>
+      </c>
+      <c r="S17">
+        <v>0.01437160675123656</v>
+      </c>
+      <c r="T17">
+        <v>0.01437160675123656</v>
       </c>
     </row>
   </sheetData>
